--- a/Data/Textbausteine_LENA_September2022.xlsx
+++ b/Data/Textbausteine_LENA_September2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="567">
   <si>
     <t>Text_ID</t>
   </si>
@@ -691,7 +691,7 @@
     <t>OtherVote_Ja_Ja</t>
   </si>
   <si>
-    <t>Da die Gemeinde auch dem Frauenrentealter 65 mit #OtherVote_JaStimmenInProzent zugestimmt hat, ist die AHV-Reform in #Gemeinde_d damit angenommen worden.</t>
+    <t>Da die Gemeinde auch dem Frauenrentealter 65 mit #OtherVote_JaStimmenInProzent Prozent zugestimmt hat, ist die AHV-Reform in #Gemeinde_d damit angenommen worden.</t>
   </si>
   <si>
     <t>La deuxième proposition concernant l'AVS soumise au verdict des urnes ce dimanche a également été acceptée avec #OtherVote_JaStimmenInProzent pour cent des voix.</t>
@@ -706,7 +706,7 @@
     <t>OtherVote_Ja_Nein</t>
   </si>
   <si>
-    <t>Weil die Gemeinde das Frauenrentenalter 65 aber mit #OtherVote_NeinStimmenInProzent Nein-Stimmen abgelehnt hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
+    <t>Weil die Gemeinde das Frauenrentenalter 65 aber mit #OtherVote_NeinStimmenInProzent Prozent Nein-Stimmen abgelehnt hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
   </si>
   <si>
     <t>La deuxième proposition concernant l'AVS soumise au verdict des urnes ce dimanche a par contre été refusée avec #OtherVote_NeinStimmenInProzent pour cent de non.</t>
@@ -724,7 +724,7 @@
     <t>OtherVote_Nein_Ja</t>
   </si>
   <si>
-    <t>Obwohl die Gemeinde das Frauenrentenalter 65 mit #OtherVote_JaStimmenInProzent Ja-Stimmen angenommen hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
+    <t>Obwohl die Gemeinde das Frauenrentenalter 65 mit #OtherVote_JaStimmenInProzent Prozent Ja-Stimmen angenommen hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
   </si>
   <si>
     <t>Si cette proposition a été refusée, l'autre concernant la révision de l'AVS a été acceptée ce dimanche avec #OtherVote_JaStimmenInProzent pour cent de oui.</t>
@@ -739,7 +739,7 @@
     <t>OtherVote_Nein_Nein</t>
   </si>
   <si>
-    <t>Da die Gemeinde auch das Frauenrentenalter 65 mit #OtherVote_NeinStimmenInProzent abgelehnt hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
+    <t>Da die Gemeinde auch das Frauenrentenalter 65 mit #OtherVote_NeinStimmenInProzent Prozent abgelehnt hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
   </si>
   <si>
     <t>L'autre proposition concernant la révision de l'AVS a aussi été refusée ce dimanche avec #OtherVote_NeinStimmenInProzent pour cent de non.</t>
@@ -754,7 +754,7 @@
     <t>HistoricPhrase_Ja_Ja</t>
   </si>
   <si>
-    <t>Auch bei der letzten AHV-Abstimmung im Jahr 2017 hatte #Gemeinde_d der Rentenreform mit #HistJaStimmenInProzent zugestimmt.</t>
+    <t>Auch bei der letzten AHV-Abstimmung im Jahr 2017 hatte #Gemeinde_d der Rentenreform mit #HistJaStimmenInProzent Prozent zugestimmt.</t>
   </si>
   <si>
     <t>Les électeurs de #Gemeinde_f avaient déjà voté oui à la précédente réforme de l'AVS en 2017.</t>
@@ -769,7 +769,7 @@
     <t>HistoricPhrase_Nein_Nein</t>
   </si>
   <si>
-    <t>Auch bei der letzten AHV-Abstimmung im Jahr 2017 hatte #Gemeinde_d eine Rentenreform mit #HistNeinStimmenInProzent Nein-Stimmen abgelehnt.</t>
+    <t>Auch bei der letzten AHV-Abstimmung im Jahr 2017 hatte #Gemeinde_d eine Rentenreform mit #HistNeinStimmenInProzent Prozent Nein-Stimmen abgelehnt.</t>
   </si>
   <si>
     <t>Les citoyens de #Gemeinde_f avaient déjà refusé la précédente révision de l'AVS en 2017.</t>
@@ -1069,19 +1069,19 @@
     <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori all'aumento dell'età pensionabile delle donne a 65 anni. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
-    <t>Da die Gemeinde auch der Erhöhung der Mehrwertsteuer mit #OtherVote_JaStimmenInProzent zugestimmt hat, ist die AHV-Reform in #Gemeinde_d damit angenommen worden.</t>
+    <t>Da die Gemeinde auch der Erhöhung der Mehrwertsteuer mit #OtherVote_JaStimmenInProzent Prozent zugestimmt hat, ist die AHV-Reform in #Gemeinde_d damit angenommen worden.</t>
   </si>
   <si>
     <t>La deuxième proposition concernant l'AVS soumise au verdict des urnes ce dimanche a également été acceptée par #OtherVote_JaStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
-    <t>Weil die Gemeinde die Erhöhung der Mehrwertsteuer aber mit #OtherVote_NeinStimmenInProzent Nein-Stimmen abgelehnt hat, ist die AHV-Reform in #Gemeinde_d damit trotzdem gescheitert.</t>
+    <t>Weil die Gemeinde die Erhöhung der Mehrwertsteuer aber mit #OtherVote_NeinStimmenInProzent Prozent Nein-Stimmen abgelehnt hat, ist die AHV-Reform in #Gemeinde_d damit trotzdem gescheitert.</t>
   </si>
   <si>
     <t>Rentenalter angenommen, Mehrwertsteuer abgelehnt</t>
   </si>
   <si>
-    <t>Obwohl die Gemeinde der Erhöhung der Mehrwertsteuer mit #OtherVote_JaStimmenInProzent angenommen hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
+    <t>Obwohl die Gemeinde der Erhöhung der Mehrwertsteuer mit #OtherVote_JaStimmenInProzent Prozent angenommen hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
   </si>
   <si>
     <t>Si cette proposition a été refusée, l'autre concernant la révision de l'AVS a été acceptée ce dimanche avec #OtherVote_JaStimmenInProzent pour cent des suffrages.</t>
@@ -1090,13 +1090,7 @@
     <t>Rentenalter abgelehnt, Mehrwertsteuer angenommen</t>
   </si>
   <si>
-    <t>Da die Gemeinde auch die Erhöhung der Mehrwertsteuer mit #OtherVote_NeinStimmenInProzent Nein-Stimmen abgelehnt hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
-  </si>
-  <si>
-    <t>Auch bei der letzten AHV-Abstimmung im Jahr 2017 hatte #Gemeinde_d der Rentenreform mit #JaStimmenInProzent zugestimmt.</t>
-  </si>
-  <si>
-    <t>Auch bei der letzten AHV-Abstimmung im Jahr 2017 hatte #Gemeinde_d eine Rentenreform mit #NeinStimmenInProzent Nein-Stimmen abgelehnt.</t>
+    <t>Da die Gemeinde auch die Erhöhung der Mehrwertsteuer mit #OtherVote_NeinStimmenInProzent Prozent Nein-Stimmen abgelehnt hat, ist die AHV-Reform in #Gemeinde_d damit gescheitert.</t>
   </si>
   <si>
     <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja-Stimmen hat eine Mehrheit der Abstimmenden in #Gemeinde_d die Änderung des Verrechnungssteuergesetzes befürwortet. </t>
@@ -8629,47 +8623,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="36" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="28" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="28" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="28" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B6" s="38">
         <v>60.4</v>
@@ -8677,7 +8671,7 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B7" s="38">
         <v>39.6</v>
@@ -8685,23 +8679,23 @@
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B10" s="38">
         <v>60.4</v>
@@ -8709,7 +8703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="28" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B11" s="38">
         <v>39.6</v>
@@ -8717,26 +8711,26 @@
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="28" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="28" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15">
@@ -8744,13 +8738,13 @@
     </row>
     <row r="16">
       <c r="A16" s="40" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B16" s="39"/>
     </row>
     <row r="17">
       <c r="A17" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B17" s="38">
         <v>60.4</v>
@@ -8758,7 +8752,7 @@
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B18" s="38">
         <v>39.6</v>
@@ -8766,23 +8760,23 @@
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B21" s="38">
         <v>60.4</v>
@@ -8790,7 +8784,7 @@
     </row>
     <row r="22">
       <c r="A22" s="28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B22" s="38">
         <v>39.6</v>
@@ -8798,18 +8792,18 @@
     </row>
     <row r="23">
       <c r="A23" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25">
@@ -18642,7 +18636,7 @@
         <v>243</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>357</v>
+        <v>244</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>245</v>
@@ -18660,7 +18654,7 @@
         <v>248</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>358</v>
+        <v>249</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>250</v>
@@ -24493,13 +24487,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -24511,13 +24505,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -24526,13 +24520,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -24541,13 +24535,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -24556,13 +24550,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -24571,13 +24565,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -24586,13 +24580,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="E8" s="8"/>
     </row>
@@ -24601,13 +24595,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -24618,13 +24612,13 @@
         <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="E10" s="8"/>
     </row>
@@ -24633,13 +24627,13 @@
         <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -24650,13 +24644,13 @@
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -24665,13 +24659,13 @@
         <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -24680,13 +24674,13 @@
         <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -24695,13 +24689,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="E15" s="8"/>
     </row>
@@ -24710,13 +24704,13 @@
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="6"/>
@@ -24726,13 +24720,13 @@
         <v>36</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -24741,13 +24735,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>32</v>
@@ -24758,13 +24752,13 @@
         <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -24773,13 +24767,13 @@
         <v>66</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>415</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>70</v>
@@ -24790,13 +24784,13 @@
         <v>71</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>75</v>
@@ -24807,13 +24801,13 @@
         <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>80</v>
@@ -24824,13 +24818,13 @@
         <v>81</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>85</v>
@@ -24841,13 +24835,13 @@
         <v>86</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>90</v>
@@ -24858,13 +24852,13 @@
         <v>91</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>95</v>
@@ -24876,13 +24870,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>100</v>
@@ -24894,13 +24888,13 @@
         <v>101</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>105</v>
@@ -24912,13 +24906,13 @@
         <v>106</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>110</v>
@@ -24969,10 +24963,10 @@
         <v>122</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>125</v>
@@ -24987,10 +24981,10 @@
         <v>127</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>130</v>
@@ -25005,10 +24999,10 @@
         <v>132</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>135</v>
@@ -25023,10 +25017,10 @@
         <v>137</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>140</v>
@@ -30856,10 +30850,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
@@ -30871,10 +30865,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -30884,10 +30878,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -30897,10 +30891,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
@@ -30912,10 +30906,10 @@
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
@@ -30927,10 +30921,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -30940,10 +30934,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -30953,10 +30947,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
@@ -30968,10 +30962,10 @@
         <v>66</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
@@ -30983,10 +30977,10 @@
         <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
@@ -30998,10 +30992,10 @@
         <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
@@ -31013,10 +31007,10 @@
         <v>111</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
@@ -31028,10 +31022,10 @@
         <v>116</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7" t="s">
@@ -31043,10 +31037,10 @@
         <v>121</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="7" t="s">
@@ -31058,10 +31052,10 @@
         <v>126</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
@@ -31073,10 +31067,10 @@
         <v>131</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
@@ -31088,10 +31082,10 @@
         <v>136</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
@@ -36914,7 +36908,7 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
@@ -36927,7 +36921,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="35" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -36938,7 +36932,7 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -36949,7 +36943,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
@@ -36962,7 +36956,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
@@ -36975,7 +36969,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -36986,7 +36980,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -36997,7 +36991,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
@@ -37010,7 +37004,7 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
@@ -37023,7 +37017,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
@@ -37036,7 +37030,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
@@ -37049,7 +37043,7 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
@@ -37062,7 +37056,7 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7" t="s">
@@ -37075,7 +37069,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="30" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="7" t="s">
@@ -37088,7 +37082,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
@@ -37101,7 +37095,7 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="30" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
@@ -37114,7 +37108,7 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
@@ -42937,7 +42931,7 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
@@ -42950,7 +42944,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -42961,7 +42955,7 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -42972,7 +42966,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
@@ -42985,7 +42979,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
@@ -42998,7 +42992,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -43009,7 +43003,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -43020,7 +43014,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
@@ -43033,7 +43027,7 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
@@ -43046,7 +43040,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
@@ -43059,7 +43053,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
@@ -43072,7 +43066,7 @@
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
@@ -43085,7 +43079,7 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7" t="s">
@@ -43098,7 +43092,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="7" t="s">
@@ -43111,7 +43105,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
@@ -43124,7 +43118,7 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
@@ -43137,7 +43131,7 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
@@ -48959,7 +48953,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="8"/>
@@ -48972,7 +48966,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="8"/>
@@ -48983,7 +48977,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="8"/>
@@ -48994,7 +48988,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
@@ -49007,7 +49001,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
@@ -49020,7 +49014,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
@@ -49031,7 +49025,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
@@ -49042,7 +49036,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="8"/>
@@ -49055,7 +49049,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="8"/>
@@ -49068,7 +49062,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
@@ -49081,7 +49075,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
@@ -49094,7 +49088,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
@@ -49107,7 +49101,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
@@ -49120,7 +49114,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="8"/>
@@ -49133,7 +49127,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="8"/>
@@ -49146,7 +49140,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="8"/>
@@ -49159,7 +49153,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="8"/>
@@ -54982,7 +54976,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="8"/>
@@ -54995,7 +54989,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="8"/>
@@ -55006,7 +55000,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="8"/>
@@ -55017,7 +55011,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
@@ -55030,7 +55024,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
@@ -55043,7 +55037,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
@@ -55054,7 +55048,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
@@ -55065,7 +55059,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="8"/>
@@ -55078,7 +55072,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="8"/>
@@ -55091,7 +55085,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
@@ -55104,7 +55098,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
@@ -55117,7 +55111,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
@@ -55130,7 +55124,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
@@ -55143,7 +55137,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="8"/>
@@ -55156,7 +55150,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="8"/>
@@ -55169,7 +55163,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="8"/>
@@ -55182,7 +55176,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="8"/>
